--- a/test_acceptation.xlsx
+++ b/test_acceptation.xlsx
@@ -2318,8 +2318,8 @@
   </sheetPr>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
